--- a/Code/Results/Cases/Case_0_112/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_112/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1473361550182943</v>
+        <v>0.04997382157907282</v>
       </c>
       <c r="D2">
-        <v>0.03954985882982243</v>
+        <v>0.01386200908951452</v>
       </c>
       <c r="E2">
-        <v>1.437996359021568</v>
+        <v>0.4243101376564908</v>
       </c>
       <c r="F2">
-        <v>0.4625866918989843</v>
+        <v>0.4515580344483539</v>
       </c>
       <c r="G2">
-        <v>0.3628944514111794</v>
+        <v>0.3013419787874909</v>
       </c>
       <c r="H2">
-        <v>0.2380453836392604</v>
+        <v>0.4455450221618378</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.436748860407761</v>
+        <v>1.077123396043532</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7890646598004167</v>
+        <v>0.8880294875536237</v>
       </c>
       <c r="O2">
-        <v>1.219713478296882</v>
+        <v>1.420488363125202</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.127513150357629</v>
+        <v>0.04434312488731962</v>
       </c>
       <c r="D3">
-        <v>0.0348420897072188</v>
+        <v>0.01228864329191026</v>
       </c>
       <c r="E3">
-        <v>1.234801840778459</v>
+        <v>0.3701214267360058</v>
       </c>
       <c r="F3">
-        <v>0.4147751321107407</v>
+        <v>0.4443250307711821</v>
       </c>
       <c r="G3">
-        <v>0.3226253528850407</v>
+        <v>0.2951115846810808</v>
       </c>
       <c r="H3">
-        <v>0.2256772464673844</v>
+        <v>0.4468836137525045</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.997263375400081</v>
+        <v>0.9400804986817093</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7713273386709432</v>
+        <v>0.8839194764473888</v>
       </c>
       <c r="O3">
-        <v>1.108034079682881</v>
+        <v>1.409775580676836</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1154462040178714</v>
+        <v>0.04089948348679684</v>
       </c>
       <c r="D4">
-        <v>0.03194258307009079</v>
+        <v>0.01131724892957919</v>
       </c>
       <c r="E4">
-        <v>1.112329002829483</v>
+        <v>0.3369378955857343</v>
       </c>
       <c r="F4">
-        <v>0.3865101535429787</v>
+        <v>0.4402722654424593</v>
       </c>
       <c r="G4">
-        <v>0.2989411440514971</v>
+        <v>0.2916004550931746</v>
       </c>
       <c r="H4">
-        <v>0.2187072098412699</v>
+        <v>0.4479939264975314</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.727596165897666</v>
+        <v>0.8556671847902919</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7612457810724891</v>
+        <v>0.8817473418291257</v>
       </c>
       <c r="O4">
-        <v>1.042965713690364</v>
+        <v>1.404457330437936</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1105514514358248</v>
+        <v>0.03949959210599729</v>
       </c>
       <c r="D5">
-        <v>0.03075863072532314</v>
+        <v>0.01092008695893298</v>
       </c>
       <c r="E5">
-        <v>1.062908803597125</v>
+        <v>0.3234358543398628</v>
       </c>
       <c r="F5">
-        <v>0.3752436608964089</v>
+        <v>0.438718046363789</v>
       </c>
       <c r="G5">
-        <v>0.2895282958410377</v>
+        <v>0.290248233801961</v>
       </c>
       <c r="H5">
-        <v>0.2160134392561162</v>
+        <v>0.4485187927989358</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.617710463627247</v>
+        <v>0.8212024614053917</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7573325405950015</v>
+        <v>0.880950876720334</v>
       </c>
       <c r="O5">
-        <v>1.017259968642605</v>
+        <v>1.402605575881125</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1097399455648116</v>
+        <v>0.03926734760882766</v>
       </c>
       <c r="D6">
-        <v>0.03056188888923117</v>
+        <v>0.0108540602945979</v>
       </c>
       <c r="E6">
-        <v>1.054729706379462</v>
+        <v>0.3211950388773772</v>
       </c>
       <c r="F6">
-        <v>0.3733874321005359</v>
+        <v>0.4384658373836885</v>
       </c>
       <c r="G6">
-        <v>0.2879790640726583</v>
+        <v>0.2900284319685937</v>
       </c>
       <c r="H6">
-        <v>0.2155747030684267</v>
+        <v>0.4486103160648867</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.599463297392077</v>
+        <v>0.8154757131872259</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7566942967364128</v>
+        <v>0.8808239911864462</v>
       </c>
       <c r="O6">
-        <v>1.013038493170768</v>
+        <v>1.402317111713842</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.115380104722135</v>
+        <v>0.04088059022112134</v>
       </c>
       <c r="D7">
-        <v>0.03192662568091009</v>
+        <v>0.01131189792906184</v>
       </c>
       <c r="E7">
-        <v>1.111660636956771</v>
+        <v>0.336755721559058</v>
       </c>
       <c r="F7">
-        <v>0.3863572195707476</v>
+        <v>0.4402509111153208</v>
       </c>
       <c r="G7">
-        <v>0.2988132623294604</v>
+        <v>0.2915819009499643</v>
       </c>
       <c r="H7">
-        <v>0.2186703004388164</v>
+        <v>0.4480007120232301</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.726114234531195</v>
+        <v>0.8552026446357104</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7611922265972737</v>
+        <v>0.8817362408525611</v>
       </c>
       <c r="O7">
-        <v>1.042615847151524</v>
+        <v>1.404431081305233</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1404772400152723</v>
+        <v>0.04802952286730999</v>
       </c>
       <c r="D8">
-        <v>0.03792838175465363</v>
+        <v>0.01332064000211375</v>
       </c>
       <c r="E8">
-        <v>1.367404847640543</v>
+        <v>0.4056064188250019</v>
       </c>
       <c r="F8">
-        <v>0.4458605780675882</v>
+        <v>0.4489832933986406</v>
       </c>
       <c r="G8">
-        <v>0.3487791678362839</v>
+        <v>0.29912821717447</v>
       </c>
       <c r="H8">
-        <v>0.2336448948171039</v>
+        <v>0.4459466360289071</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.285152598118486</v>
+        <v>1.02992780217744</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7827756327060627</v>
+        <v>0.8865396076148784</v>
       </c>
       <c r="O8">
-        <v>1.180435307821398</v>
+        <v>1.416532455323789</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1906988911342182</v>
+        <v>0.06215772947155074</v>
       </c>
       <c r="D9">
-        <v>0.04963466734196942</v>
+        <v>0.01721616289282224</v>
       </c>
       <c r="E9">
-        <v>1.89145218755209</v>
+        <v>0.5414103827941688</v>
       </c>
       <c r="F9">
-        <v>0.5723128171692764</v>
+        <v>0.4692053025033971</v>
       </c>
       <c r="G9">
-        <v>0.4561495511631648</v>
+        <v>0.3164425627586525</v>
       </c>
       <c r="H9">
-        <v>0.2684643020419344</v>
+        <v>0.4442128710571325</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.384820137761494</v>
+        <v>1.370367210366453</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8319326914944725</v>
+        <v>0.8987347429896744</v>
       </c>
       <c r="O9">
-        <v>1.481936592347068</v>
+        <v>1.450315031536377</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2284780679742084</v>
+        <v>0.07260675156352647</v>
       </c>
       <c r="D10">
-        <v>0.05820954956681845</v>
+        <v>0.02005023012586094</v>
       </c>
       <c r="E10">
-        <v>2.297046850996281</v>
+        <v>0.6417931197073585</v>
       </c>
       <c r="F10">
-        <v>0.672840717823135</v>
+        <v>0.4859762851314997</v>
       </c>
       <c r="G10">
-        <v>0.5424603197812417</v>
+        <v>0.3307291313723653</v>
       </c>
       <c r="H10">
-        <v>0.2981306685290122</v>
+        <v>0.4443465404101374</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5.197915423215477</v>
+        <v>1.619084449520187</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8728346796619917</v>
+        <v>0.9093721544169853</v>
       </c>
       <c r="O10">
-        <v>1.727695237513018</v>
+        <v>1.481349453971802</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2459212551637506</v>
+        <v>0.07737586259557361</v>
       </c>
       <c r="D11">
-        <v>0.06210819107251808</v>
+        <v>0.02133317191321282</v>
       </c>
       <c r="E11">
-        <v>2.487797033953527</v>
+        <v>0.6876198744579511</v>
       </c>
       <c r="F11">
-        <v>0.7206387139171255</v>
+        <v>0.4940270216706608</v>
       </c>
       <c r="G11">
-        <v>0.5837572638425002</v>
+        <v>0.3375754111214775</v>
       </c>
       <c r="H11">
-        <v>0.3127005468090687</v>
+        <v>0.4447149295095869</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>5.569714864808304</v>
+        <v>1.731915469411433</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8926326494563597</v>
+        <v>0.9145728895110778</v>
       </c>
       <c r="O11">
-        <v>1.846043195944986</v>
+        <v>1.496836188275864</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2525694077067442</v>
+        <v>0.07918409612301502</v>
       </c>
       <c r="D12">
-        <v>0.06358449265503197</v>
+        <v>0.02181805543579429</v>
       </c>
       <c r="E12">
-        <v>2.561097181803348</v>
+        <v>0.7049986939847486</v>
       </c>
       <c r="F12">
-        <v>0.7390736140978618</v>
+        <v>0.4971366475163421</v>
       </c>
       <c r="G12">
-        <v>0.5997266078291545</v>
+        <v>0.3402183806311996</v>
       </c>
       <c r="H12">
-        <v>0.3183895933587735</v>
+        <v>0.4448988082245506</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>5.71085280555036</v>
+        <v>1.774595267241921</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9003146877508073</v>
+        <v>0.9165940287818017</v>
       </c>
       <c r="O12">
-        <v>1.891919087998474</v>
+        <v>1.502898914123051</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2511356078140778</v>
+        <v>0.07879455946793712</v>
       </c>
       <c r="D13">
-        <v>0.06326654126504394</v>
+        <v>0.02171366938468111</v>
       </c>
       <c r="E13">
-        <v>2.545260275944486</v>
+        <v>0.7012547019538431</v>
       </c>
       <c r="F13">
-        <v>0.7350877993493867</v>
+        <v>0.4964642156444654</v>
       </c>
       <c r="G13">
-        <v>0.5962719419700164</v>
+        <v>0.3396469189438562</v>
       </c>
       <c r="H13">
-        <v>0.3171564239380729</v>
+        <v>0.4448572305759626</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>5.68043966277844</v>
+        <v>1.765405525608628</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8986517668406435</v>
+        <v>0.916156443799764</v>
       </c>
       <c r="O13">
-        <v>1.881989740064967</v>
+        <v>1.501584359159892</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2464673099050287</v>
+        <v>0.07752458145250785</v>
       </c>
       <c r="D14">
-        <v>0.06222964618697802</v>
+        <v>0.02137308258095061</v>
       </c>
       <c r="E14">
-        <v>2.493805041143858</v>
+        <v>0.6890491239283278</v>
       </c>
       <c r="F14">
-        <v>0.7221484255078821</v>
+        <v>0.4942816280717039</v>
       </c>
       <c r="G14">
-        <v>0.5850642008296489</v>
+        <v>0.3377918362267849</v>
       </c>
       <c r="H14">
-        <v>0.3131650411438756</v>
+        <v>0.4447291670758915</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5.581319015746317</v>
+        <v>1.735427712856563</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.893260865896508</v>
+        <v>0.914738134617437</v>
       </c>
       <c r="O14">
-        <v>1.849795469365802</v>
+        <v>1.497330991569726</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2436135969231401</v>
+        <v>0.07674697956029775</v>
       </c>
       <c r="D15">
-        <v>0.0615945229155983</v>
+        <v>0.02116434007111678</v>
       </c>
       <c r="E15">
-        <v>2.462431620123425</v>
+        <v>0.6815761964983267</v>
       </c>
       <c r="F15">
-        <v>0.7142674675867511</v>
+        <v>0.4929526834365276</v>
       </c>
       <c r="G15">
-        <v>0.5782434653904005</v>
+        <v>0.3366621270220094</v>
       </c>
       <c r="H15">
-        <v>0.3107431114585211</v>
+        <v>0.4446565081809553</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>5.52065195975473</v>
+        <v>1.717059274018538</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8899832974408497</v>
+        <v>0.9138761083359839</v>
       </c>
       <c r="O15">
-        <v>1.830217307026913</v>
+        <v>1.494751538028567</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2273437758975234</v>
+        <v>0.07229539709884136</v>
       </c>
       <c r="D16">
-        <v>0.0579547443572892</v>
+        <v>0.01996625736682489</v>
       </c>
       <c r="E16">
-        <v>2.284720484992462</v>
+        <v>0.638801658778732</v>
       </c>
       <c r="F16">
-        <v>0.6697617357530561</v>
+        <v>0.4854586645604257</v>
       </c>
       <c r="G16">
-        <v>0.5398056085789449</v>
+        <v>0.3302887409712696</v>
       </c>
       <c r="H16">
-        <v>0.2972015499910867</v>
+        <v>0.4443286672704545</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>5.173661843888681</v>
+        <v>1.611704230276416</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8715659517519896</v>
+        <v>0.9090395286832802</v>
       </c>
       <c r="O16">
-        <v>1.720102574843338</v>
+        <v>1.480365024872128</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.217432628862241</v>
+        <v>0.06956854391917489</v>
       </c>
       <c r="D17">
-        <v>0.05572150165082235</v>
+        <v>0.01922963707136205</v>
       </c>
       <c r="E17">
-        <v>2.177413170642396</v>
+        <v>0.6126037447600794</v>
       </c>
       <c r="F17">
-        <v>0.6430140206599333</v>
+        <v>0.4809695549568858</v>
       </c>
       <c r="G17">
-        <v>0.5167724400057523</v>
+        <v>0.3264681678130756</v>
       </c>
       <c r="H17">
-        <v>0.2891811928072912</v>
+        <v>0.4442064315573759</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>4.961333227473801</v>
+        <v>1.546991035250073</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8605820240338318</v>
+        <v>0.9061648867451595</v>
       </c>
       <c r="O17">
-        <v>1.65430907651205</v>
+        <v>1.471890979218642</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2117558368396857</v>
+        <v>0.06800161696108376</v>
       </c>
       <c r="D18">
-        <v>0.05443678206106739</v>
+        <v>0.01880536258514098</v>
       </c>
       <c r="E18">
-        <v>2.116269103906077</v>
+        <v>0.5975505443285982</v>
       </c>
       <c r="F18">
-        <v>0.6278215818370683</v>
+        <v>0.4784271922708427</v>
       </c>
       <c r="G18">
-        <v>0.5037132709615832</v>
+        <v>0.3243033299875577</v>
       </c>
       <c r="H18">
-        <v>0.2846681065202574</v>
+        <v>0.4441650670010375</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>4.839383384173118</v>
+        <v>1.509740499519012</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8543756221161232</v>
+        <v>0.9045455321361402</v>
       </c>
       <c r="O18">
-        <v>1.617075305223352</v>
+        <v>1.467145708648019</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2098376980013938</v>
+        <v>0.06747133769600566</v>
       </c>
       <c r="D19">
-        <v>0.05400175288993125</v>
+        <v>0.01866161025331792</v>
       </c>
       <c r="E19">
-        <v>2.095660941099752</v>
+        <v>0.5924563329920858</v>
       </c>
       <c r="F19">
-        <v>0.6227095965060983</v>
+        <v>0.477573191347588</v>
       </c>
       <c r="G19">
-        <v>0.4993229879878101</v>
+        <v>0.3235759464272405</v>
       </c>
       <c r="H19">
-        <v>0.2831567316986252</v>
+        <v>0.4441560280373267</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>4.798121481848113</v>
+        <v>1.497123152345807</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8522929529769812</v>
+        <v>0.904003105632313</v>
       </c>
       <c r="O19">
-        <v>1.604569759055607</v>
+        <v>1.465561117284693</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2184851798387655</v>
+        <v>0.06985866818980924</v>
       </c>
       <c r="D20">
-        <v>0.05595925476801256</v>
+        <v>0.01930811286872114</v>
       </c>
       <c r="E20">
-        <v>2.188775419781905</v>
+        <v>0.6153909760641625</v>
       </c>
       <c r="F20">
-        <v>0.64584121422088</v>
+        <v>0.4814433215672125</v>
       </c>
       <c r="G20">
-        <v>0.5192045417730782</v>
+        <v>0.3268714910912678</v>
       </c>
       <c r="H20">
-        <v>0.2900245032033979</v>
+        <v>0.4442164472790466</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>4.983917278946535</v>
+        <v>1.553882904049431</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8617396713462853</v>
+        <v>0.9064673739154898</v>
       </c>
       <c r="O20">
-        <v>1.661249068465054</v>
+        <v>1.472779718037003</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2478372918848351</v>
+        <v>0.07789754302339702</v>
       </c>
       <c r="D21">
-        <v>0.06253420584624791</v>
+        <v>0.02147314692875568</v>
       </c>
       <c r="E21">
-        <v>2.508888263695127</v>
+        <v>0.6926334982629072</v>
       </c>
       <c r="F21">
-        <v>0.7259396284576098</v>
+        <v>0.4949210488309461</v>
       </c>
       <c r="G21">
-        <v>0.5883468733581765</v>
+        <v>0.3383353463066214</v>
       </c>
       <c r="H21">
-        <v>0.314332599912504</v>
+        <v>0.4447655768477006</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>5.610423180108398</v>
+        <v>1.744234211106061</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8948391694943183</v>
+        <v>0.9151533245684647</v>
       </c>
       <c r="O21">
-        <v>1.85922193734487</v>
+        <v>1.498574917720958</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.267273115814362</v>
+        <v>0.08316467225213842</v>
       </c>
       <c r="D22">
-        <v>0.06683129764107321</v>
+        <v>0.02288263470950369</v>
       </c>
       <c r="E22">
-        <v>2.72441675664821</v>
+        <v>0.7432638629730803</v>
       </c>
       <c r="F22">
-        <v>0.7802604012446892</v>
+        <v>0.50408517198872</v>
       </c>
       <c r="G22">
-        <v>0.6354860209249154</v>
+        <v>0.3461218260892025</v>
       </c>
       <c r="H22">
-        <v>0.3312297074987924</v>
+        <v>0.4453832015709906</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.021933299049806</v>
+        <v>1.868365716984101</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9175569686897518</v>
+        <v>0.9211315145176258</v>
       </c>
       <c r="O22">
-        <v>1.99485120204983</v>
+        <v>1.516589680422072</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2568746906709833</v>
+        <v>0.08035229207403916</v>
       </c>
       <c r="D23">
-        <v>0.06453776090278751</v>
+        <v>0.02213087788602763</v>
       </c>
       <c r="E23">
-        <v>2.608745071271144</v>
+        <v>0.7162273160135157</v>
       </c>
       <c r="F23">
-        <v>0.7510745754682944</v>
+        <v>0.4991614424140494</v>
       </c>
       <c r="G23">
-        <v>0.6101346887562755</v>
+        <v>0.3419389523257621</v>
       </c>
       <c r="H23">
-        <v>0.3221128026357007</v>
+        <v>0.4450298401189201</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>5.802089720665435</v>
+        <v>1.802140144629959</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9053279270663523</v>
+        <v>0.9179133530880108</v>
       </c>
       <c r="O23">
-        <v>1.921849967741849</v>
+        <v>1.506868624214746</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2180092557595543</v>
+        <v>0.0697275005869642</v>
       </c>
       <c r="D24">
-        <v>0.05585176909163181</v>
+        <v>0.01927263639297649</v>
       </c>
       <c r="E24">
-        <v>2.183636851503906</v>
+        <v>0.6141308430277093</v>
       </c>
       <c r="F24">
-        <v>0.6445624660150173</v>
+        <v>0.4812290118260165</v>
       </c>
       <c r="G24">
-        <v>0.5181044217246438</v>
+        <v>0.3266890500523658</v>
       </c>
       <c r="H24">
-        <v>0.2896429388444091</v>
+        <v>0.4442118291239154</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>4.973706658472167</v>
+        <v>1.550767233480826</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8612159623591253</v>
+        <v>0.9063305156641803</v>
       </c>
       <c r="O24">
-        <v>1.658109663596207</v>
+        <v>1.472377525046653</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1769784435071955</v>
+        <v>0.05832373131028135</v>
       </c>
       <c r="D25">
-        <v>0.04647333276965071</v>
+        <v>0.01616713397754665</v>
       </c>
       <c r="E25">
-        <v>1.746612283221452</v>
+        <v>0.5045743668315197</v>
       </c>
       <c r="F25">
-        <v>0.5368945623563164</v>
+        <v>0.463400450432907</v>
       </c>
       <c r="G25">
-        <v>0.4259309730715017</v>
+        <v>0.3114859220056729</v>
       </c>
       <c r="H25">
-        <v>0.2583862922047331</v>
+        <v>0.4444353750269983</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>4.086665333461269</v>
+        <v>1.278511180746307</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8178418224698589</v>
+        <v>0.8951400068560247</v>
       </c>
       <c r="O25">
-        <v>1.396517912272571</v>
+        <v>1.440090904297506</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_112/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_112/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04997382157907282</v>
+        <v>0.1473361550180954</v>
       </c>
       <c r="D2">
-        <v>0.01386200908951452</v>
+        <v>0.03954985882982243</v>
       </c>
       <c r="E2">
-        <v>0.4243101376564908</v>
+        <v>1.437996359021568</v>
       </c>
       <c r="F2">
-        <v>0.4515580344483539</v>
+        <v>0.4625866918989772</v>
       </c>
       <c r="G2">
-        <v>0.3013419787874909</v>
+        <v>0.362894451411222</v>
       </c>
       <c r="H2">
-        <v>0.4455450221618378</v>
+        <v>0.2380453836392746</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.077123396043532</v>
+        <v>3.436748860407874</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8880294875536237</v>
+        <v>0.7890646598004167</v>
       </c>
       <c r="O2">
-        <v>1.420488363125202</v>
+        <v>1.219713478296995</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04434312488731962</v>
+        <v>0.1275131503573874</v>
       </c>
       <c r="D3">
-        <v>0.01228864329191026</v>
+        <v>0.03484208970718328</v>
       </c>
       <c r="E3">
-        <v>0.3701214267360058</v>
+        <v>1.234801840778459</v>
       </c>
       <c r="F3">
-        <v>0.4443250307711821</v>
+        <v>0.4147751321107336</v>
       </c>
       <c r="G3">
-        <v>0.2951115846810808</v>
+        <v>0.3226253528850691</v>
       </c>
       <c r="H3">
-        <v>0.4468836137525045</v>
+        <v>0.2256772464672707</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9400804986817093</v>
+        <v>2.997263375400195</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8839194764473888</v>
+        <v>0.771327338671</v>
       </c>
       <c r="O3">
-        <v>1.409775580676836</v>
+        <v>1.108034079682881</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04089948348679684</v>
+        <v>0.1154462040178714</v>
       </c>
       <c r="D4">
-        <v>0.01131724892957919</v>
+        <v>0.03194258307027553</v>
       </c>
       <c r="E4">
-        <v>0.3369378955857343</v>
+        <v>1.112329002829483</v>
       </c>
       <c r="F4">
-        <v>0.4402722654424593</v>
+        <v>0.3865101535429716</v>
       </c>
       <c r="G4">
-        <v>0.2916004550931746</v>
+        <v>0.2989411440515397</v>
       </c>
       <c r="H4">
-        <v>0.4479939264975314</v>
+        <v>0.2187072098412699</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8556671847902919</v>
+        <v>2.727596165897609</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8817473418291257</v>
+        <v>0.761245781072418</v>
       </c>
       <c r="O4">
-        <v>1.404457330437936</v>
+        <v>1.042965713690307</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03949959210599729</v>
+        <v>0.1105514514358248</v>
       </c>
       <c r="D5">
-        <v>0.01092008695893298</v>
+        <v>0.03075863072532314</v>
       </c>
       <c r="E5">
-        <v>0.3234358543398628</v>
+        <v>1.062908803597125</v>
       </c>
       <c r="F5">
-        <v>0.438718046363789</v>
+        <v>0.3752436608964018</v>
       </c>
       <c r="G5">
-        <v>0.290248233801961</v>
+        <v>0.2895282958411514</v>
       </c>
       <c r="H5">
-        <v>0.4485187927989358</v>
+        <v>0.2160134392561162</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8212024614053917</v>
+        <v>2.617710463627276</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.880950876720334</v>
+        <v>0.7573325405950158</v>
       </c>
       <c r="O5">
-        <v>1.402605575881125</v>
+        <v>1.017259968642577</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03926734760882766</v>
+        <v>0.1097399455645842</v>
       </c>
       <c r="D6">
-        <v>0.0108540602945979</v>
+        <v>0.03056188888886879</v>
       </c>
       <c r="E6">
-        <v>0.3211950388773772</v>
+        <v>1.054729706379447</v>
       </c>
       <c r="F6">
-        <v>0.4384658373836885</v>
+        <v>0.3733874321005359</v>
       </c>
       <c r="G6">
-        <v>0.2900284319685937</v>
+        <v>0.2879790640727435</v>
       </c>
       <c r="H6">
-        <v>0.4486103160648867</v>
+        <v>0.2155747030684267</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8154757131872259</v>
+        <v>2.59946329739185</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8808239911864462</v>
+        <v>0.7566942967364128</v>
       </c>
       <c r="O6">
-        <v>1.402317111713842</v>
+        <v>1.013038493170711</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04088059022112134</v>
+        <v>0.1153801047221208</v>
       </c>
       <c r="D7">
-        <v>0.01131189792906184</v>
+        <v>0.03192662568105931</v>
       </c>
       <c r="E7">
-        <v>0.336755721559058</v>
+        <v>1.111660636956785</v>
       </c>
       <c r="F7">
-        <v>0.4402509111153208</v>
+        <v>0.3863572195707476</v>
       </c>
       <c r="G7">
-        <v>0.2915819009499643</v>
+        <v>0.2988132623294177</v>
       </c>
       <c r="H7">
-        <v>0.4480007120232301</v>
+        <v>0.2186703004389301</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8552026446357104</v>
+        <v>2.726114234531167</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8817362408525611</v>
+        <v>0.7611922265972595</v>
       </c>
       <c r="O7">
-        <v>1.404431081305233</v>
+        <v>1.042615847151524</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04802952286730999</v>
+        <v>0.1404772400152439</v>
       </c>
       <c r="D8">
-        <v>0.01332064000211375</v>
+        <v>0.03792838175464652</v>
       </c>
       <c r="E8">
-        <v>0.4056064188250019</v>
+        <v>1.367404847640515</v>
       </c>
       <c r="F8">
-        <v>0.4489832933986406</v>
+        <v>0.445860578067574</v>
       </c>
       <c r="G8">
-        <v>0.29912821717447</v>
+        <v>0.348779167836156</v>
       </c>
       <c r="H8">
-        <v>0.4459466360289071</v>
+        <v>0.2336448948171039</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.02992780217744</v>
+        <v>3.285152598118543</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8865396076148784</v>
+        <v>0.7827756327060911</v>
       </c>
       <c r="O8">
-        <v>1.416532455323789</v>
+        <v>1.180435307821398</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06215772947155074</v>
+        <v>0.1906988911344598</v>
       </c>
       <c r="D9">
-        <v>0.01721616289282224</v>
+        <v>0.04963466734184152</v>
       </c>
       <c r="E9">
-        <v>0.5414103827941688</v>
+        <v>1.891452187552048</v>
       </c>
       <c r="F9">
-        <v>0.4692053025033971</v>
+        <v>0.5723128171692906</v>
       </c>
       <c r="G9">
-        <v>0.3164425627586525</v>
+        <v>0.4561495511631648</v>
       </c>
       <c r="H9">
-        <v>0.4442128710571325</v>
+        <v>0.2684643020419344</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.370367210366453</v>
+        <v>4.384820137761437</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8987347429896744</v>
+        <v>0.8319326914943588</v>
       </c>
       <c r="O9">
-        <v>1.450315031536377</v>
+        <v>1.481936592347012</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07260675156352647</v>
+        <v>0.2284780679742084</v>
       </c>
       <c r="D10">
-        <v>0.02005023012586094</v>
+        <v>0.05820954956676161</v>
       </c>
       <c r="E10">
-        <v>0.6417931197073585</v>
+        <v>2.297046850996281</v>
       </c>
       <c r="F10">
-        <v>0.4859762851314997</v>
+        <v>0.6728407178231208</v>
       </c>
       <c r="G10">
-        <v>0.3307291313723653</v>
+        <v>0.5424603197812417</v>
       </c>
       <c r="H10">
-        <v>0.4443465404101374</v>
+        <v>0.2981306685289979</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.619084449520187</v>
+        <v>5.197915423215534</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9093721544169853</v>
+        <v>0.8728346796619206</v>
       </c>
       <c r="O10">
-        <v>1.481349453971802</v>
+        <v>1.727695237512933</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07737586259557361</v>
+        <v>0.2459212551640064</v>
       </c>
       <c r="D11">
-        <v>0.02133317191321282</v>
+        <v>0.06210819107247545</v>
       </c>
       <c r="E11">
-        <v>0.6876198744579511</v>
+        <v>2.487797033953555</v>
       </c>
       <c r="F11">
-        <v>0.4940270216706608</v>
+        <v>0.7206387139171113</v>
       </c>
       <c r="G11">
-        <v>0.3375754111214775</v>
+        <v>0.5837572638425144</v>
       </c>
       <c r="H11">
-        <v>0.4447149295095869</v>
+        <v>0.3127005468090687</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.731915469411433</v>
+        <v>5.569714864808304</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9145728895110778</v>
+        <v>0.8926326494563313</v>
       </c>
       <c r="O11">
-        <v>1.496836188275864</v>
+        <v>1.846043195944958</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07918409612301502</v>
+        <v>0.2525694077066589</v>
       </c>
       <c r="D12">
-        <v>0.02181805543579429</v>
+        <v>0.0635844926550817</v>
       </c>
       <c r="E12">
-        <v>0.7049986939847486</v>
+        <v>2.561097181803376</v>
       </c>
       <c r="F12">
-        <v>0.4971366475163421</v>
+        <v>0.7390736140978618</v>
       </c>
       <c r="G12">
-        <v>0.3402183806311996</v>
+        <v>0.5997266078291261</v>
       </c>
       <c r="H12">
-        <v>0.4448988082245506</v>
+        <v>0.3183895933587451</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.774595267241921</v>
+        <v>5.710852805550473</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9165940287818017</v>
+        <v>0.9003146877508073</v>
       </c>
       <c r="O12">
-        <v>1.502898914123051</v>
+        <v>1.891919087998531</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07879455946793712</v>
+        <v>0.2511356078139642</v>
       </c>
       <c r="D13">
-        <v>0.02171366938468111</v>
+        <v>0.06326654126504394</v>
       </c>
       <c r="E13">
-        <v>0.7012547019538431</v>
+        <v>2.5452602759445</v>
       </c>
       <c r="F13">
-        <v>0.4964642156444654</v>
+        <v>0.7350877993493867</v>
       </c>
       <c r="G13">
-        <v>0.3396469189438562</v>
+        <v>0.5962719419700306</v>
       </c>
       <c r="H13">
-        <v>0.4448572305759626</v>
+        <v>0.3171564239380729</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.765405525608628</v>
+        <v>5.680439662778554</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.916156443799764</v>
+        <v>0.8986517668405867</v>
       </c>
       <c r="O13">
-        <v>1.501584359159892</v>
+        <v>1.881989740065023</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07752458145250785</v>
+        <v>0.2464673099051282</v>
       </c>
       <c r="D14">
-        <v>0.02137308258095061</v>
+        <v>0.06222964618685722</v>
       </c>
       <c r="E14">
-        <v>0.6890491239283278</v>
+        <v>2.493805041143801</v>
       </c>
       <c r="F14">
-        <v>0.4942816280717039</v>
+        <v>0.7221484255078821</v>
       </c>
       <c r="G14">
-        <v>0.3377918362267849</v>
+        <v>0.5850642008296347</v>
       </c>
       <c r="H14">
-        <v>0.4447291670758915</v>
+        <v>0.3131650411438613</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.735427712856563</v>
+        <v>5.58131901574626</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.914738134617437</v>
+        <v>0.8932608658964938</v>
       </c>
       <c r="O14">
-        <v>1.497330991569726</v>
+        <v>1.849795469365745</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07674697956029775</v>
+        <v>0.2436135969230122</v>
       </c>
       <c r="D15">
-        <v>0.02116434007111678</v>
+        <v>0.06159452291554857</v>
       </c>
       <c r="E15">
-        <v>0.6815761964983267</v>
+        <v>2.462431620123425</v>
       </c>
       <c r="F15">
-        <v>0.4929526834365276</v>
+        <v>0.7142674675867653</v>
       </c>
       <c r="G15">
-        <v>0.3366621270220094</v>
+        <v>0.5782434653904147</v>
       </c>
       <c r="H15">
-        <v>0.4446565081809553</v>
+        <v>0.3107431114586348</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.717059274018538</v>
+        <v>5.520651959754616</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9138761083359839</v>
+        <v>0.8899832974408639</v>
       </c>
       <c r="O15">
-        <v>1.494751538028567</v>
+        <v>1.830217307026913</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07229539709884136</v>
+        <v>0.2273437758976513</v>
       </c>
       <c r="D16">
-        <v>0.01996625736682489</v>
+        <v>0.05795474435745263</v>
       </c>
       <c r="E16">
-        <v>0.638801658778732</v>
+        <v>2.284720484992405</v>
       </c>
       <c r="F16">
-        <v>0.4854586645604257</v>
+        <v>0.6697617357530561</v>
       </c>
       <c r="G16">
-        <v>0.3302887409712696</v>
+        <v>0.5398056085789591</v>
       </c>
       <c r="H16">
-        <v>0.4443286672704545</v>
+        <v>0.2972015499910867</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.611704230276416</v>
+        <v>5.173661843888738</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9090395286832802</v>
+        <v>0.8715659517519754</v>
       </c>
       <c r="O16">
-        <v>1.480365024872128</v>
+        <v>1.720102574843338</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06956854391917489</v>
+        <v>0.2174326288622126</v>
       </c>
       <c r="D17">
-        <v>0.01922963707136205</v>
+        <v>0.05572150165070866</v>
       </c>
       <c r="E17">
-        <v>0.6126037447600794</v>
+        <v>2.177413170642396</v>
       </c>
       <c r="F17">
-        <v>0.4809695549568858</v>
+        <v>0.6430140206599475</v>
       </c>
       <c r="G17">
-        <v>0.3264681678130756</v>
+        <v>0.5167724400058091</v>
       </c>
       <c r="H17">
-        <v>0.4442064315573759</v>
+        <v>0.2891811928072769</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.546991035250073</v>
+        <v>4.961333227473858</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9061648867451595</v>
+        <v>0.8605820240338176</v>
       </c>
       <c r="O17">
-        <v>1.471890979218642</v>
+        <v>1.65430907651205</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06800161696108376</v>
+        <v>0.2117558368396857</v>
       </c>
       <c r="D18">
-        <v>0.01880536258514098</v>
+        <v>0.05443678206106028</v>
       </c>
       <c r="E18">
-        <v>0.5975505443285982</v>
+        <v>2.116269103906077</v>
       </c>
       <c r="F18">
-        <v>0.4784271922708427</v>
+        <v>0.6278215818370541</v>
       </c>
       <c r="G18">
-        <v>0.3243033299875577</v>
+        <v>0.5037132709615832</v>
       </c>
       <c r="H18">
-        <v>0.4441650670010375</v>
+        <v>0.2846681065202716</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.509740499519012</v>
+        <v>4.839383384172947</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9045455321361402</v>
+        <v>0.8543756221161232</v>
       </c>
       <c r="O18">
-        <v>1.467145708648019</v>
+        <v>1.617075305223295</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06747133769600566</v>
+        <v>0.2098376980015075</v>
       </c>
       <c r="D19">
-        <v>0.01866161025331792</v>
+        <v>0.05400175288992415</v>
       </c>
       <c r="E19">
-        <v>0.5924563329920858</v>
+        <v>2.095660941099723</v>
       </c>
       <c r="F19">
-        <v>0.477573191347588</v>
+        <v>0.6227095965060983</v>
       </c>
       <c r="G19">
-        <v>0.3235759464272405</v>
+        <v>0.4993229879878385</v>
       </c>
       <c r="H19">
-        <v>0.4441560280373267</v>
+        <v>0.2831567316987531</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.497123152345807</v>
+        <v>4.798121481848284</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.904003105632313</v>
+        <v>0.8522929529769669</v>
       </c>
       <c r="O19">
-        <v>1.465561117284693</v>
+        <v>1.604569759055636</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06985866818980924</v>
+        <v>0.2184851798386518</v>
       </c>
       <c r="D20">
-        <v>0.01930811286872114</v>
+        <v>0.05595925476803387</v>
       </c>
       <c r="E20">
-        <v>0.6153909760641625</v>
+        <v>2.188775419781933</v>
       </c>
       <c r="F20">
-        <v>0.4814433215672125</v>
+        <v>0.64584121422088</v>
       </c>
       <c r="G20">
-        <v>0.3268714910912678</v>
+        <v>0.5192045417730782</v>
       </c>
       <c r="H20">
-        <v>0.4442164472790466</v>
+        <v>0.2900245032033979</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.553882904049431</v>
+        <v>4.983917278946649</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9064673739154898</v>
+        <v>0.8617396713462284</v>
       </c>
       <c r="O20">
-        <v>1.472779718037003</v>
+        <v>1.661249068465025</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07789754302339702</v>
+        <v>0.2478372918848208</v>
       </c>
       <c r="D21">
-        <v>0.02147314692875568</v>
+        <v>0.06253420584624791</v>
       </c>
       <c r="E21">
-        <v>0.6926334982629072</v>
+        <v>2.508888263695113</v>
       </c>
       <c r="F21">
-        <v>0.4949210488309461</v>
+        <v>0.7259396284576241</v>
       </c>
       <c r="G21">
-        <v>0.3383353463066214</v>
+        <v>0.5883468733581907</v>
       </c>
       <c r="H21">
-        <v>0.4447655768477006</v>
+        <v>0.3143325999126318</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.744234211106061</v>
+        <v>5.610423180108342</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9151533245684647</v>
+        <v>0.8948391694943041</v>
       </c>
       <c r="O21">
-        <v>1.498574917720958</v>
+        <v>1.859221937344813</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08316467225213842</v>
+        <v>0.2672731158142483</v>
       </c>
       <c r="D22">
-        <v>0.02288263470950369</v>
+        <v>0.06683129764107321</v>
       </c>
       <c r="E22">
-        <v>0.7432638629730803</v>
+        <v>2.724416756648168</v>
       </c>
       <c r="F22">
-        <v>0.50408517198872</v>
+        <v>0.7802604012446892</v>
       </c>
       <c r="G22">
-        <v>0.3461218260892025</v>
+        <v>0.6354860209248585</v>
       </c>
       <c r="H22">
-        <v>0.4453832015709906</v>
+        <v>0.3312297074987782</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.868365716984101</v>
+        <v>6.021933299049863</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9211315145176258</v>
+        <v>0.9175569686897518</v>
       </c>
       <c r="O22">
-        <v>1.516589680422072</v>
+        <v>1.99485120204983</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.08035229207403916</v>
+        <v>0.2568746906708697</v>
       </c>
       <c r="D23">
-        <v>0.02213087788602763</v>
+        <v>0.06453776090272356</v>
       </c>
       <c r="E23">
-        <v>0.7162273160135157</v>
+        <v>2.60874507127113</v>
       </c>
       <c r="F23">
-        <v>0.4991614424140494</v>
+        <v>0.7510745754682944</v>
       </c>
       <c r="G23">
-        <v>0.3419389523257621</v>
+        <v>0.6101346887562613</v>
       </c>
       <c r="H23">
-        <v>0.4450298401189201</v>
+        <v>0.3221128026357007</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.802140144629959</v>
+        <v>5.802089720665435</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9179133530880108</v>
+        <v>0.9053279270663523</v>
       </c>
       <c r="O23">
-        <v>1.506868624214746</v>
+        <v>1.921849967741821</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0697275005869642</v>
+        <v>0.2180092557594264</v>
       </c>
       <c r="D24">
-        <v>0.01927263639297649</v>
+        <v>0.0558517690916176</v>
       </c>
       <c r="E24">
-        <v>0.6141308430277093</v>
+        <v>2.18363685150392</v>
       </c>
       <c r="F24">
-        <v>0.4812290118260165</v>
+        <v>0.6445624660150031</v>
       </c>
       <c r="G24">
-        <v>0.3266890500523658</v>
+        <v>0.5181044217246153</v>
       </c>
       <c r="H24">
-        <v>0.4442118291239154</v>
+        <v>0.2896429388444091</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.550767233480826</v>
+        <v>4.973706658472054</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9063305156641803</v>
+        <v>0.8612159623591253</v>
       </c>
       <c r="O24">
-        <v>1.472377525046653</v>
+        <v>1.658109663596235</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05832373131028135</v>
+        <v>0.1769784435072808</v>
       </c>
       <c r="D25">
-        <v>0.01616713397754665</v>
+        <v>0.04647333276970755</v>
       </c>
       <c r="E25">
-        <v>0.5045743668315197</v>
+        <v>1.746612283221452</v>
       </c>
       <c r="F25">
-        <v>0.463400450432907</v>
+        <v>0.5368945623563377</v>
       </c>
       <c r="G25">
-        <v>0.3114859220056729</v>
+        <v>0.4259309730714307</v>
       </c>
       <c r="H25">
-        <v>0.4444353750269983</v>
+        <v>0.2583862922047331</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.278511180746307</v>
+        <v>4.086665333461212</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8951400068560247</v>
+        <v>0.8178418224697879</v>
       </c>
       <c r="O25">
-        <v>1.440090904297506</v>
+        <v>1.396517912272571</v>
       </c>
     </row>
   </sheetData>
